--- a/data/trans_orig/P5707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C1360E-70AE-4455-B6E0-991AD507CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D54C73-00E6-4A68-A2AA-70C8DB362712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CAEA2DB-CDBE-4CA6-9ACD-5B0143DF7251}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{295A78F9-E6CC-46E0-ADC8-2B3107A01110}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1909 +77,1906 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>45,78%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2015 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCBEAF1-4AD0-41E0-968A-DEAFCF6D121C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F39ECA-951A-497A-9EFB-1E18B9289A19}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2704,13 +2701,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -2719,13 +2716,13 @@
         <v>11045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2734,13 +2731,13 @@
         <v>12771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -2749,13 +2746,13 @@
         <v>23816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2767,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2785,13 +2782,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2800,18 +2797,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2823,13 +2820,13 @@
         <v>1013878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>934</v>
@@ -2838,13 +2835,13 @@
         <v>948984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1903</v>
@@ -2853,13 +2850,13 @@
         <v>1962863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2871,13 @@
         <v>470415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
@@ -2889,13 +2886,13 @@
         <v>421638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>887</v>
@@ -2904,13 +2901,13 @@
         <v>892053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2922,13 @@
         <v>176115</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -2940,13 +2937,13 @@
         <v>171876</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -2955,13 +2952,13 @@
         <v>347992</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2973,13 @@
         <v>28454</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2991,13 +2988,13 @@
         <v>41988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -3006,19 +3003,19 @@
         <v>70442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -3027,13 +3024,13 @@
         <v>4550</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3042,13 +3039,13 @@
         <v>2207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3057,13 +3054,13 @@
         <v>6756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3075,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -3093,13 +3090,13 @@
         <v>1586693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3108,18 +3105,18 @@
         <v>3280106</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3131,13 +3128,13 @@
         <v>344251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3146,13 +3143,13 @@
         <v>295740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -3161,13 +3158,13 @@
         <v>639991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3179,13 @@
         <v>153388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -3197,13 +3194,13 @@
         <v>121177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -3212,13 +3209,13 @@
         <v>274566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3230,13 @@
         <v>39885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -3248,13 +3245,13 @@
         <v>44062</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -3263,13 +3260,13 @@
         <v>83947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3281,13 @@
         <v>13883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3299,13 +3296,13 @@
         <v>14507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3314,19 +3311,19 @@
         <v>28390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3335,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3350,13 +3347,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3365,13 +3362,13 @@
         <v>926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3383,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3401,13 +3398,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3416,13 +3413,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3436,13 @@
         <v>1859255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>1836</v>
@@ -3454,13 +3451,13 @@
         <v>1869389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>3643</v>
@@ -3469,13 +3466,13 @@
         <v>3728644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3487,13 @@
         <v>919138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>892</v>
@@ -3505,13 +3502,13 @@
         <v>910292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1804</v>
@@ -3520,13 +3517,13 @@
         <v>1829430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3538,13 @@
         <v>391491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>429</v>
@@ -3556,13 +3553,13 @@
         <v>448428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>822</v>
@@ -3571,13 +3568,13 @@
         <v>839919</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3589,13 @@
         <v>91066</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -3607,13 +3604,13 @@
         <v>134204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -3622,19 +3619,19 @@
         <v>225270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -3643,13 +3640,13 @@
         <v>15594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3658,13 +3655,13 @@
         <v>15904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3673,13 +3670,13 @@
         <v>31498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3691,13 @@
         <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3709,33 +3706,33 @@
         <v>3378217</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
       </c>
       <c r="N27" s="7">
-        <v>6654761</v>
+        <v>6654760</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01760844-C582-48C5-9C7B-8F16D6581133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D2DEF4-7EB0-4671-B8B0-B08575B94BC5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3878,13 +3875,13 @@
         <v>525294</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3893,13 +3890,13 @@
         <v>712838</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1159</v>
@@ -3908,13 +3905,13 @@
         <v>1238133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3926,13 @@
         <v>276275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>381</v>
@@ -3944,13 +3941,13 @@
         <v>409283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -3959,13 +3956,13 @@
         <v>685558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3977,13 @@
         <v>129924</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>145</v>
@@ -3995,13 +3992,13 @@
         <v>156635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>265</v>
@@ -4010,13 +4007,13 @@
         <v>286559</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4028,13 @@
         <v>28804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4046,13 +4043,13 @@
         <v>40079</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4061,19 +4058,19 @@
         <v>68883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -4082,13 +4079,13 @@
         <v>9365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4097,13 +4094,13 @@
         <v>15836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4112,13 +4109,13 @@
         <v>25201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4130,13 @@
         <v>969662</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1244</v>
@@ -4148,13 +4145,13 @@
         <v>1334672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
@@ -4163,18 +4160,18 @@
         <v>2304334</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4186,13 +4183,13 @@
         <v>1221845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>980</v>
@@ -4201,13 +4198,13 @@
         <v>1050363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2141</v>
@@ -4216,13 +4213,13 @@
         <v>2272208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4234,13 @@
         <v>502729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -4252,13 +4249,13 @@
         <v>497571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>933</v>
@@ -4267,13 +4264,13 @@
         <v>1000300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4285,13 @@
         <v>193440</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>147</v>
@@ -4303,13 +4300,13 @@
         <v>157504</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>329</v>
@@ -4318,13 +4315,13 @@
         <v>350944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4336,13 @@
         <v>36867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4354,13 +4351,13 @@
         <v>34500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4369,19 +4366,19 @@
         <v>71367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>7</v>
@@ -4390,13 +4387,13 @@
         <v>6820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4405,13 +4402,13 @@
         <v>15795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4420,13 +4417,13 @@
         <v>22615</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4438,13 @@
         <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4456,13 +4453,13 @@
         <v>1755733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4471,18 +4468,18 @@
         <v>3717434</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4491,13 @@
         <v>328965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4509,13 +4506,13 @@
         <v>318100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>589</v>
@@ -4524,13 +4521,13 @@
         <v>647066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4542,13 @@
         <v>106990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4560,13 +4557,13 @@
         <v>103628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -4575,13 +4572,13 @@
         <v>210618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4593,13 @@
         <v>32715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4611,13 +4608,13 @@
         <v>33137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4626,13 +4623,13 @@
         <v>65852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4644,13 @@
         <v>8388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4662,13 +4659,13 @@
         <v>3765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4677,10 +4674,10 @@
         <v>12153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>308</v>
@@ -4689,7 +4686,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -4698,13 +4695,13 @@
         <v>2026</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4713,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4728,13 +4725,13 @@
         <v>2026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4746,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4764,13 +4761,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4779,13 +4776,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4799,13 @@
         <v>2076104</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>1934</v>
@@ -4817,13 +4814,13 @@
         <v>2081302</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>3889</v>
@@ -4832,13 +4829,13 @@
         <v>4157407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4850,13 @@
         <v>885994</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -4868,13 +4865,13 @@
         <v>1010482</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>1761</v>
@@ -4883,13 +4880,13 @@
         <v>1896477</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4901,13 @@
         <v>356079</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>320</v>
@@ -4919,13 +4916,13 @@
         <v>347276</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>648</v>
@@ -4934,13 +4931,13 @@
         <v>703356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4952,13 @@
         <v>74059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4970,13 +4967,13 @@
         <v>78344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -4985,19 +4982,19 @@
         <v>152403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -5006,13 +5003,13 @@
         <v>18211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -5021,13 +5018,13 @@
         <v>31631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5036,13 +5033,13 @@
         <v>49842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5054,13 @@
         <v>3410448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3289</v>
@@ -5072,13 +5069,13 @@
         <v>3549036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6482</v>
@@ -5087,18 +5084,18 @@
         <v>6959484</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F721AF8-A4C1-4592-846A-2E24B6A2A0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012092D2-7589-4258-B878-FEEC9E2B6241}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5134,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5241,13 +5238,13 @@
         <v>347447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>396</v>
@@ -5256,13 +5253,13 @@
         <v>437948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>745</v>
@@ -5271,13 +5268,13 @@
         <v>785394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5289,13 @@
         <v>250250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -5307,13 +5304,13 @@
         <v>340311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -5322,13 +5319,13 @@
         <v>590561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5340,13 @@
         <v>126896</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>136</v>
@@ -5358,13 +5355,13 @@
         <v>151567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5373,13 +5370,13 @@
         <v>278463</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5391,13 @@
         <v>26653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5409,13 +5406,13 @@
         <v>52417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5424,19 +5421,19 @@
         <v>79070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5445,13 +5442,13 @@
         <v>3101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5460,13 +5457,13 @@
         <v>9977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5475,13 +5472,13 @@
         <v>13078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5493,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5511,13 +5508,13 @@
         <v>992220</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1652</v>
@@ -5526,18 +5523,18 @@
         <v>1746567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5549,13 +5546,13 @@
         <v>1016949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>969</v>
@@ -5564,13 +5561,13 @@
         <v>1003608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>1930</v>
@@ -5579,13 +5576,13 @@
         <v>2020556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5597,13 @@
         <v>687220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -5615,13 +5612,13 @@
         <v>687201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -5630,13 +5627,13 @@
         <v>1374421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5648,13 @@
         <v>311606</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>241</v>
@@ -5666,13 +5663,13 @@
         <v>259515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>532</v>
@@ -5681,13 +5678,13 @@
         <v>571121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5699,13 @@
         <v>40928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5717,13 +5714,13 @@
         <v>24193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5732,19 +5729,19 @@
         <v>65122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>15</v>
@@ -5753,13 +5750,13 @@
         <v>16180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5768,13 +5765,13 @@
         <v>10264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5783,13 +5780,13 @@
         <v>26444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5801,13 @@
         <v>2072883</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5819,13 +5816,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3854</v>
@@ -5834,18 +5831,18 @@
         <v>4057664</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5857,13 +5854,13 @@
         <v>304893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5872,13 +5869,13 @@
         <v>339724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5887,13 +5884,13 @@
         <v>644617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5905,13 @@
         <v>183800</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -5923,13 +5920,13 @@
         <v>145006</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
@@ -5938,13 +5935,13 @@
         <v>328806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5956,13 @@
         <v>55319</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -5974,13 +5971,13 @@
         <v>53514</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -5989,13 +5986,13 @@
         <v>108833</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6025,13 +6022,13 @@
         <v>9962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6040,10 +6037,10 @@
         <v>9962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>459</v>
@@ -6052,7 +6049,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -6064,10 +6061,10 @@
         <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6076,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6091,13 +6088,13 @@
         <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6109,13 @@
         <v>545005</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6127,28 +6124,28 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093210</v>
+        <v>1093211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6162,13 @@
         <v>1669288</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>1693</v>
@@ -6180,22 +6177,22 @@
         <v>1781279</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
       </c>
       <c r="N22" s="7">
-        <v>3450568</v>
+        <v>3450567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>469</v>
@@ -6219,10 +6216,10 @@
         <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>1104</v>
@@ -6231,13 +6228,13 @@
         <v>1172518</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>2168</v>
@@ -6246,13 +6243,13 @@
         <v>2293788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6264,13 @@
         <v>493821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H24" s="7">
         <v>428</v>
@@ -6282,13 +6279,13 @@
         <v>464596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>454</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>899</v>
@@ -6297,13 +6294,13 @@
         <v>958417</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6315,13 @@
         <v>67581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -6333,13 +6330,13 @@
         <v>86572</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6348,19 +6345,19 @@
         <v>154154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -6369,13 +6366,13 @@
         <v>20275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>493</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6384,13 +6381,13 @@
         <v>20241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6399,13 +6396,13 @@
         <v>40515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6417,13 @@
         <v>3372234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3320</v>
@@ -6435,33 +6432,33 @@
         <v>3525207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897442</v>
+        <v>6897441</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6480,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6084242-2EC4-4E8E-9E9D-BB28AA6E6E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBFCD02-85F9-4F40-B04F-8BE08174903C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6497,7 +6494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6604,13 +6601,13 @@
         <v>260251</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -6619,13 +6616,13 @@
         <v>371922</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>959</v>
@@ -6634,13 +6631,13 @@
         <v>632172</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6652,13 @@
         <v>155155</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>450</v>
@@ -6670,13 +6667,13 @@
         <v>266248</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>649</v>
@@ -6685,13 +6682,13 @@
         <v>421403</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6703,13 @@
         <v>82167</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>211</v>
@@ -6721,13 +6718,13 @@
         <v>118153</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6736,13 +6733,13 @@
         <v>200319</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6754,13 @@
         <v>28000</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -6772,13 +6769,13 @@
         <v>54580</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -6787,19 +6784,19 @@
         <v>82580</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -6808,13 +6805,13 @@
         <v>13950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6823,13 +6820,13 @@
         <v>17613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>533</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -6838,13 +6835,13 @@
         <v>31562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>534</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6856,13 @@
         <v>539522</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1416</v>
@@ -6874,13 +6871,13 @@
         <v>828515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2104</v>
@@ -6889,18 +6886,18 @@
         <v>1368037</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6912,13 +6909,13 @@
         <v>1195461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>1586</v>
@@ -6927,13 +6924,13 @@
         <v>1193867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M10" s="7">
         <v>2617</v>
@@ -6942,13 +6939,13 @@
         <v>2389329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6960,13 @@
         <v>750592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H11" s="7">
         <v>1007</v>
@@ -6978,13 +6975,13 @@
         <v>719257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7">
         <v>1740</v>
@@ -6993,13 +6990,13 @@
         <v>1469848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7011,13 @@
         <v>149062</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
@@ -7029,13 +7026,13 @@
         <v>145538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
@@ -7044,13 +7041,13 @@
         <v>294600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7062,13 @@
         <v>50625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>563</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -7080,10 +7077,10 @@
         <v>170268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>566</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>567</v>
@@ -7095,19 +7092,19 @@
         <v>220894</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -7119,10 +7116,10 @@
         <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -7131,13 +7128,13 @@
         <v>17982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>572</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>573</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7146,13 +7143,13 @@
         <v>30399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7164,13 @@
         <v>2158157</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2917</v>
@@ -7182,13 +7179,13 @@
         <v>2246912</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4905</v>
@@ -7197,18 +7194,18 @@
         <v>4405070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7220,10 +7217,10 @@
         <v>431408</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>577</v>
@@ -7247,7 +7244,7 @@
         <v>1097</v>
       </c>
       <c r="N16" s="7">
-        <v>921721</v>
+        <v>921720</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>581</v>
@@ -7286,13 +7283,13 @@
         <v>185718</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
@@ -7301,13 +7298,13 @@
         <v>377544</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7319,13 @@
         <v>32124</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -7337,10 +7334,10 @@
         <v>24645</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>596</v>
@@ -7388,13 +7385,13 @@
         <v>7092</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -7403,19 +7400,19 @@
         <v>21494</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -7424,13 +7421,13 @@
         <v>1850</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7439,13 +7436,13 @@
         <v>5960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7454,13 +7451,13 @@
         <v>7810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7472,13 @@
         <v>671611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1003</v>
@@ -7490,28 +7487,28 @@
         <v>713727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1385339</v>
+        <v>1385338</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7525,13 @@
         <v>1887120</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
@@ -7543,13 +7540,13 @@
         <v>2056101</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="M22" s="7">
         <v>4673</v>
@@ -7558,13 +7555,13 @@
         <v>3943221</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7576,13 @@
         <v>1097572</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>368</v>
+        <v>622</v>
       </c>
       <c r="H23" s="7">
         <v>1734</v>
@@ -7594,13 +7591,13 @@
         <v>1171222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>624</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M23" s="7">
         <v>2873</v>
@@ -7609,13 +7606,13 @@
         <v>2268795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>626</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7627,13 @@
         <v>263353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>626</v>
+        <v>447</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H24" s="7">
         <v>449</v>
@@ -7645,13 +7642,13 @@
         <v>288336</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
@@ -7660,13 +7657,13 @@
         <v>551688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7678,13 @@
         <v>93028</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
@@ -7696,13 +7693,13 @@
         <v>231941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -7711,19 +7708,19 @@
         <v>324968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>642</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>37</v>
@@ -7732,13 +7729,13 @@
         <v>28217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -7747,10 +7744,10 @@
         <v>41554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>643</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>644</v>
@@ -7762,13 +7759,13 @@
         <v>69772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7780,13 @@
         <v>3369290</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5336</v>
@@ -7798,33 +7795,33 @@
         <v>3789154</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8691</v>
       </c>
       <c r="N27" s="7">
-        <v>7158445</v>
+        <v>7158444</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D54C73-00E6-4A68-A2AA-70C8DB362712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6843BF-7FB8-495F-9D6B-9618A334148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{295A78F9-E6CC-46E0-ADC8-2B3107A01110}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33EC99B0-C460-43E0-9A3D-68972ABC5ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,19 +107,19 @@
     <t>28,63%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>28,24%</t>
@@ -128,7 +128,7 @@
     <t>26,54%</t>
   </si>
   <si>
-    <t>30,03%</t>
+    <t>30,15%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1767 +167,1746 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
     <t>8,89%</t>
   </si>
   <si>
@@ -1962,9 +1941,6 @@
   </si>
   <si>
     <t>16,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -2388,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F39ECA-951A-497A-9EFB-1E18B9289A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F1CF2E-39B4-4C88-872D-1A2170F18C91}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2734,10 +2710,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -2746,13 +2722,13 @@
         <v>23816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2743,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2782,13 +2758,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2797,18 +2773,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2817,16 +2793,16 @@
         <v>969</v>
       </c>
       <c r="D10" s="7">
-        <v>1013878</v>
+        <v>1013879</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>934</v>
@@ -2835,13 +2811,13 @@
         <v>948984</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1903</v>
@@ -2850,13 +2826,13 @@
         <v>1962863</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,16 +2844,16 @@
         <v>471</v>
       </c>
       <c r="D11" s="7">
-        <v>470415</v>
+        <v>470416</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>416</v>
@@ -2886,13 +2862,13 @@
         <v>421638</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>887</v>
@@ -2901,13 +2877,13 @@
         <v>892053</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2898,13 @@
         <v>176115</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -2937,13 +2913,13 @@
         <v>171876</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>343</v>
@@ -2952,13 +2928,13 @@
         <v>347992</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2949,13 @@
         <v>28454</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2988,13 +2964,13 @@
         <v>41988</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -3003,13 +2979,13 @@
         <v>70442</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3000,13 @@
         <v>4550</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3039,13 +3015,13 @@
         <v>2207</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3054,13 +3030,13 @@
         <v>6756</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,16 +3048,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1553</v>
@@ -3090,13 +3066,13 @@
         <v>1586693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3105,18 +3081,18 @@
         <v>3280106</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3128,13 +3104,13 @@
         <v>344251</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3143,13 +3119,13 @@
         <v>295740</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -3158,13 +3134,13 @@
         <v>639991</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3155,13 @@
         <v>153388</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -3194,13 +3170,13 @@
         <v>121177</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -3209,13 +3185,13 @@
         <v>274566</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3206,13 @@
         <v>39885</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -3245,13 +3221,13 @@
         <v>44062</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -3260,13 +3236,13 @@
         <v>83947</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3257,13 @@
         <v>13883</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3296,13 +3272,13 @@
         <v>14507</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3311,13 +3287,13 @@
         <v>28390</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3347,13 +3323,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3362,13 +3338,13 @@
         <v>926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3359,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3398,13 +3374,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3413,13 +3389,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,16 +3409,16 @@
         <v>1807</v>
       </c>
       <c r="D22" s="7">
-        <v>1859255</v>
+        <v>1859254</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>1836</v>
@@ -3451,13 +3427,13 @@
         <v>1869389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>3643</v>
@@ -3466,13 +3442,13 @@
         <v>3728644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3463,13 @@
         <v>919138</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>892</v>
@@ -3502,13 +3478,13 @@
         <v>910292</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>1804</v>
@@ -3517,13 +3493,13 @@
         <v>1829430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3514,13 @@
         <v>391491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>429</v>
@@ -3553,13 +3529,13 @@
         <v>448428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>822</v>
@@ -3568,13 +3544,13 @@
         <v>839919</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3565,13 @@
         <v>91066</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -3604,13 +3580,13 @@
         <v>134204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -3619,13 +3595,13 @@
         <v>225270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>15594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3655,13 +3631,13 @@
         <v>15904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3670,13 +3646,13 @@
         <v>31498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,16 +3664,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3296</v>
@@ -3706,33 +3682,33 @@
         <v>3378217</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
       </c>
       <c r="N27" s="7">
-        <v>6654760</v>
+        <v>6654761</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D2DEF4-7EB0-4671-B8B0-B08575B94BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ECF5CA-A3EE-40F7-83FD-6C060CDF1525}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3875,13 +3851,13 @@
         <v>525294</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3890,13 +3866,13 @@
         <v>712838</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1159</v>
@@ -3905,13 +3881,13 @@
         <v>1238133</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3902,13 @@
         <v>276275</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>381</v>
@@ -3941,13 +3917,13 @@
         <v>409283</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -3956,13 +3932,13 @@
         <v>685558</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3953,13 @@
         <v>129924</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>145</v>
@@ -3992,13 +3968,13 @@
         <v>156635</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>265</v>
@@ -4007,13 +3983,13 @@
         <v>286559</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4004,13 @@
         <v>28804</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4043,13 +4019,13 @@
         <v>40079</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4058,13 +4034,13 @@
         <v>68883</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,10 +4058,10 @@
         <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4094,13 +4070,13 @@
         <v>15836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4109,13 +4085,13 @@
         <v>25201</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4106,13 @@
         <v>969662</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1244</v>
@@ -4145,13 +4121,13 @@
         <v>1334672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
@@ -4160,18 +4136,18 @@
         <v>2304334</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4183,13 +4159,13 @@
         <v>1221845</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>980</v>
@@ -4198,13 +4174,13 @@
         <v>1050363</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2141</v>
@@ -4213,13 +4189,13 @@
         <v>2272208</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>502729</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -4249,13 +4225,13 @@
         <v>497571</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>933</v>
@@ -4264,13 +4240,13 @@
         <v>1000300</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4261,13 @@
         <v>193440</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>147</v>
@@ -4300,13 +4276,13 @@
         <v>157504</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>329</v>
@@ -4315,13 +4291,13 @@
         <v>350944</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4312,13 @@
         <v>36867</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4351,13 +4327,13 @@
         <v>34500</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4366,13 +4342,13 @@
         <v>71367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4363,13 @@
         <v>6820</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4402,13 +4378,13 @@
         <v>15795</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4417,10 +4393,10 @@
         <v>22615</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -4435,16 +4411,16 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4453,13 +4429,13 @@
         <v>1755733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3487</v>
@@ -4468,18 +4444,18 @@
         <v>3717434</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4491,13 +4467,13 @@
         <v>328965</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4506,13 +4482,13 @@
         <v>318100</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>589</v>
@@ -4521,13 +4497,13 @@
         <v>647066</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4518,13 @@
         <v>106990</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4557,13 +4533,13 @@
         <v>103628</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -4572,13 +4548,13 @@
         <v>210618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4569,13 @@
         <v>32715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4608,13 +4584,13 @@
         <v>33137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4623,13 +4599,13 @@
         <v>65852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4620,13 @@
         <v>8388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4659,13 +4635,13 @@
         <v>3765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4674,10 +4650,10 @@
         <v>12153</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>308</v>
@@ -4695,13 +4671,13 @@
         <v>2026</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4710,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4728,10 +4704,10 @@
         <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4722,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4761,13 +4737,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4776,13 +4752,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4775,13 @@
         <v>2076104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>1934</v>
@@ -4814,13 +4790,13 @@
         <v>2081302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>3889</v>
@@ -4829,13 +4805,13 @@
         <v>4157407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4826,13 @@
         <v>885994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -4901,7 +4877,7 @@
         <v>356079</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>330</v>
@@ -4931,13 +4907,13 @@
         <v>703356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4928,13 @@
         <v>74059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4967,10 +4943,10 @@
         <v>78344</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>341</v>
@@ -4982,13 +4958,13 @@
         <v>152403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4979,13 @@
         <v>18211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -5018,13 +4994,13 @@
         <v>31631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5036,7 +5012,7 @@
         <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>54</v>
@@ -5054,13 +5030,13 @@
         <v>3410448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3289</v>
@@ -5069,13 +5045,13 @@
         <v>3549036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6482</v>
@@ -5084,18 +5060,18 @@
         <v>6959484</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012092D2-7589-4258-B878-FEEC9E2B6241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1F8A5-1EE1-4F23-B837-07F5D0C5DD30}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,13 +5214,13 @@
         <v>347447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>396</v>
@@ -5253,13 +5229,13 @@
         <v>437948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>745</v>
@@ -5268,13 +5244,13 @@
         <v>785394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5265,13 @@
         <v>250250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -5304,13 +5280,13 @@
         <v>340311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -5319,13 +5295,13 @@
         <v>590561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5316,13 @@
         <v>126896</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>136</v>
@@ -5355,13 +5331,13 @@
         <v>151567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5370,13 +5346,13 @@
         <v>278463</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5367,13 @@
         <v>26653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5406,7 +5382,7 @@
         <v>52417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>380</v>
@@ -5448,7 +5424,7 @@
         <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5457,13 +5433,13 @@
         <v>9977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5472,13 +5448,13 @@
         <v>13078</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5469,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5508,13 +5484,13 @@
         <v>992220</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1652</v>
@@ -5523,18 +5499,18 @@
         <v>1746567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5546,13 +5522,13 @@
         <v>1016949</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>969</v>
@@ -5561,13 +5537,13 @@
         <v>1003608</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>1930</v>
@@ -5576,13 +5552,13 @@
         <v>2020556</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5573,13 @@
         <v>687220</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -5612,13 +5588,13 @@
         <v>687201</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -5627,13 +5603,13 @@
         <v>1374421</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5624,13 @@
         <v>311606</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>241</v>
@@ -5663,13 +5639,13 @@
         <v>259515</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>532</v>
@@ -5678,13 +5654,13 @@
         <v>571121</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5675,13 @@
         <v>40928</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>419</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5714,10 +5690,10 @@
         <v>24193</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>421</v>
@@ -5729,13 +5705,13 @@
         <v>65122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5726,13 @@
         <v>16180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5765,13 +5741,13 @@
         <v>10264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5780,13 +5756,13 @@
         <v>26444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5777,13 @@
         <v>2072883</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5816,13 +5792,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3854</v>
@@ -5831,18 +5807,18 @@
         <v>4057664</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5854,13 +5830,13 @@
         <v>304893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>429</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5869,13 +5845,13 @@
         <v>339724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5884,13 +5860,13 @@
         <v>644617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5881,13 @@
         <v>183800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -5920,7 +5896,7 @@
         <v>145006</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>440</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>441</v>
@@ -6007,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6022,13 +5998,13 @@
         <v>9962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6037,13 +6013,13 @@
         <v>9962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6034,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6073,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>461</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6088,13 +6064,13 @@
         <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6085,13 @@
         <v>545005</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6124,28 +6100,28 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093211</v>
+        <v>1093210</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6138,13 @@
         <v>1669288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>1693</v>
@@ -6177,28 +6153,28 @@
         <v>1781279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
       </c>
       <c r="N22" s="7">
-        <v>3450567</v>
+        <v>3450568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6189,13 @@
         <v>1121270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>1104</v>
@@ -6228,13 +6204,13 @@
         <v>1172518</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M23" s="7">
         <v>2168</v>
@@ -6243,13 +6219,13 @@
         <v>2293788</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6240,13 @@
         <v>493821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H24" s="7">
         <v>428</v>
@@ -6279,13 +6255,13 @@
         <v>464596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M24" s="7">
         <v>899</v>
@@ -6294,13 +6270,13 @@
         <v>958417</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6291,13 @@
         <v>67581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -6330,13 +6306,13 @@
         <v>86572</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6345,13 +6321,13 @@
         <v>154154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6342,13 @@
         <v>20275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6381,13 +6357,13 @@
         <v>20241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6396,13 +6372,13 @@
         <v>40515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6393,13 @@
         <v>3372234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3320</v>
@@ -6432,33 +6408,33 @@
         <v>3525207</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897441</v>
+        <v>6897442</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6477,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBFCD02-85F9-4F40-B04F-8BE08174903C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399B903F-AF0C-4CAE-BD55-50406DE49D96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6601,13 +6577,13 @@
         <v>260251</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -6616,13 +6592,13 @@
         <v>371922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>502</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>959</v>
@@ -6631,13 +6607,13 @@
         <v>632172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6628,13 @@
         <v>155155</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>450</v>
@@ -6667,13 +6643,13 @@
         <v>266248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>649</v>
@@ -6682,13 +6658,13 @@
         <v>421403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6679,13 @@
         <v>82167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7">
         <v>211</v>
@@ -6718,13 +6694,13 @@
         <v>118153</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6733,13 +6709,13 @@
         <v>200319</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6730,13 @@
         <v>28000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -6769,13 +6745,13 @@
         <v>54580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -6784,13 +6760,13 @@
         <v>82580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6781,13 @@
         <v>13950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>531</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6820,13 +6796,13 @@
         <v>17613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -6835,13 +6811,13 @@
         <v>31562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>535</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6832,13 @@
         <v>539522</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1416</v>
@@ -6871,13 +6847,13 @@
         <v>828515</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2104</v>
@@ -6886,18 +6862,18 @@
         <v>1368037</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6909,13 +6885,13 @@
         <v>1195461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>1586</v>
@@ -6924,13 +6900,13 @@
         <v>1193867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>2617</v>
@@ -6939,13 +6915,13 @@
         <v>2389329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6936,13 @@
         <v>750592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H11" s="7">
         <v>1007</v>
@@ -6975,13 +6951,13 @@
         <v>719257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M11" s="7">
         <v>1740</v>
@@ -6990,13 +6966,13 @@
         <v>1469848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6987,13 @@
         <v>149062</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
@@ -7026,13 +7002,13 @@
         <v>145538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
@@ -7041,13 +7017,13 @@
         <v>294600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7038,13 @@
         <v>50625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -7077,13 +7053,13 @@
         <v>170268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7092,13 +7068,13 @@
         <v>220894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7089,13 @@
         <v>12417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -7128,13 +7104,13 @@
         <v>17982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>572</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>565</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>566</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7143,13 +7119,13 @@
         <v>30399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>573</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7140,13 @@
         <v>2158157</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2917</v>
@@ -7179,13 +7155,13 @@
         <v>2246912</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4905</v>
@@ -7194,18 +7170,18 @@
         <v>4405070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7217,13 +7193,13 @@
         <v>431408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>673</v>
@@ -7232,13 +7208,13 @@
         <v>490312</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M16" s="7">
         <v>1097</v>
@@ -7247,13 +7223,13 @@
         <v>921720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7244,13 @@
         <v>191826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -7283,13 +7259,13 @@
         <v>185718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
@@ -7301,10 +7277,10 @@
         <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7295,13 @@
         <v>32124</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -7334,13 +7310,13 @@
         <v>24645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -7349,13 +7325,13 @@
         <v>56769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>597</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7346,13 @@
         <v>14402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -7385,13 +7361,13 @@
         <v>7092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>596</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>603</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -7400,13 +7376,13 @@
         <v>21494</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>606</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7397,13 @@
         <v>1850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>607</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7436,13 +7412,13 @@
         <v>5960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>601</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>602</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7451,13 +7427,13 @@
         <v>7810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>607</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7448,13 @@
         <v>671611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1003</v>
@@ -7487,13 +7463,13 @@
         <v>713727</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1682</v>
@@ -7502,13 +7478,13 @@
         <v>1385338</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7501,13 @@
         <v>1887120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
@@ -7540,13 +7516,13 @@
         <v>2056101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M22" s="7">
         <v>4673</v>
@@ -7555,13 +7531,13 @@
         <v>3943221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7552,13 @@
         <v>1097572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>622</v>
+        <v>474</v>
       </c>
       <c r="H23" s="7">
         <v>1734</v>
@@ -7591,13 +7567,13 @@
         <v>1171222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M23" s="7">
         <v>2873</v>
@@ -7606,13 +7582,13 @@
         <v>2268795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7603,13 @@
         <v>263353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>447</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>449</v>
@@ -7642,13 +7618,13 @@
         <v>288336</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
@@ -7657,13 +7633,13 @@
         <v>551688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7654,13 @@
         <v>93028</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
@@ -7693,13 +7669,13 @@
         <v>231941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -7708,13 +7684,13 @@
         <v>324968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>641</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7705,13 @@
         <v>28217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -7744,13 +7720,13 @@
         <v>41554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7762,10 +7738,10 @@
         <v>54</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7756,13 @@
         <v>3369290</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5336</v>
@@ -7795,13 +7771,13 @@
         <v>3789154</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8691</v>
@@ -7810,18 +7786,18 @@
         <v>7158444</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6843BF-7FB8-495F-9D6B-9618A334148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE83C10-5CB0-40EB-9008-327BCCEB7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33EC99B0-C460-43E0-9A3D-68972ABC5ABF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E44BB0E9-7A3A-4B78-9E07-67487C3FD705}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>45,0%</t>
+    <t>44,7%</t>
   </si>
   <si>
     <t>50,16%</t>
@@ -95,10 +95,10 @@
     <t>47,97%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1852 +107,1879 @@
     <t>28,63%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>1,24%</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F1CF2E-39B4-4C88-872D-1A2170F18C91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3915057-684B-418A-8AC2-AE0845619BE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2677,13 +2704,13 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -2692,13 +2719,13 @@
         <v>11045</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2707,10 +2734,10 @@
         <v>12771</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2793,7 +2820,7 @@
         <v>969</v>
       </c>
       <c r="D10" s="7">
-        <v>1013879</v>
+        <v>1013878</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2844,7 +2871,7 @@
         <v>471</v>
       </c>
       <c r="D11" s="7">
-        <v>470416</v>
+        <v>470415</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2991,7 +3018,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -3048,7 +3075,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3278,7 +3305,7 @@
         <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -3287,19 +3314,19 @@
         <v>28390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3311,10 +3338,10 @@
         <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3323,13 +3350,13 @@
         <v>926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3409,7 +3436,7 @@
         <v>1807</v>
       </c>
       <c r="D22" s="7">
-        <v>1859254</v>
+        <v>1859255</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>147</v>
@@ -3481,10 +3508,10 @@
         <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>1804</v>
@@ -3493,13 +3520,13 @@
         <v>1829430</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3541,13 @@
         <v>391491</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>429</v>
@@ -3529,13 +3556,13 @@
         <v>448428</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>822</v>
@@ -3544,13 +3571,13 @@
         <v>839919</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3592,13 @@
         <v>91066</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -3580,13 +3607,13 @@
         <v>134204</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -3595,7 +3622,7 @@
         <v>225270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>180</v>
@@ -3607,7 +3634,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -3652,7 +3679,7 @@
         <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3691,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3708,7 +3735,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ECF5CA-A3EE-40F7-83FD-6C060CDF1525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C04FE-6244-4BAB-844F-0879499A63A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +3878,13 @@
         <v>525294</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3866,13 +3893,13 @@
         <v>712838</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>1159</v>
@@ -3881,13 +3908,13 @@
         <v>1238133</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3929,13 @@
         <v>276275</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>381</v>
@@ -3917,13 +3944,13 @@
         <v>409283</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -3932,13 +3959,13 @@
         <v>685558</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3980,13 @@
         <v>129924</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>145</v>
@@ -3968,13 +3995,13 @@
         <v>156635</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>265</v>
@@ -3983,13 +4010,13 @@
         <v>286559</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4031,13 @@
         <v>28804</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4019,13 +4046,13 @@
         <v>40079</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4034,19 +4061,19 @@
         <v>68883</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -4055,13 +4082,13 @@
         <v>9365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4070,13 +4097,13 @@
         <v>15836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4085,13 +4112,13 @@
         <v>25201</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4186,13 @@
         <v>1221845</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>980</v>
@@ -4174,13 +4201,13 @@
         <v>1050363</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>2141</v>
@@ -4189,13 +4216,13 @@
         <v>2272208</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4237,13 @@
         <v>502729</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>464</v>
@@ -4225,13 +4252,13 @@
         <v>497571</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>933</v>
@@ -4240,13 +4267,13 @@
         <v>1000300</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4288,13 @@
         <v>193440</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>147</v>
@@ -4276,13 +4303,13 @@
         <v>157504</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>329</v>
@@ -4291,13 +4318,13 @@
         <v>350944</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4339,13 @@
         <v>36867</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4327,13 +4354,13 @@
         <v>34500</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4342,19 +4369,19 @@
         <v>71367</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>7</v>
@@ -4363,13 +4390,13 @@
         <v>6820</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4399,7 +4426,7 @@
         <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4438,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -4467,13 +4494,13 @@
         <v>328965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -4482,13 +4509,13 @@
         <v>318100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>589</v>
@@ -4497,13 +4524,13 @@
         <v>647066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4545,13 @@
         <v>106990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4533,13 +4560,13 @@
         <v>103628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -4548,13 +4575,13 @@
         <v>210618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4596,13 @@
         <v>32715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4587,10 +4614,10 @@
         <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4599,13 +4626,13 @@
         <v>65852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4647,13 @@
         <v>8388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4635,10 +4662,10 @@
         <v>3765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>305</v>
@@ -4662,7 +4689,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -4689,10 +4716,10 @@
         <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4701,13 +4728,13 @@
         <v>2026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4802,13 @@
         <v>2076104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>1934</v>
@@ -4790,13 +4817,13 @@
         <v>2081302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>3889</v>
@@ -4805,13 +4832,13 @@
         <v>4157407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4853,13 @@
         <v>885994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
@@ -4841,13 +4868,13 @@
         <v>1010482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>1761</v>
@@ -4856,13 +4883,13 @@
         <v>1896477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4904,13 @@
         <v>356079</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>320</v>
@@ -4892,13 +4919,13 @@
         <v>347276</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>648</v>
@@ -4907,13 +4934,13 @@
         <v>703356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4955,13 @@
         <v>74059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4943,13 +4970,13 @@
         <v>78344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -4958,19 +4985,19 @@
         <v>152403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -4979,13 +5006,13 @@
         <v>18211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -4994,13 +5021,13 @@
         <v>31631</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5009,13 +5036,13 @@
         <v>49842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5098,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1F8A5-1EE1-4F23-B837-07F5D0C5DD30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D4F0-A3F5-4742-A4F6-716D8541B0D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5134,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5241,13 @@
         <v>347447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>396</v>
@@ -5229,13 +5256,13 @@
         <v>437948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>745</v>
@@ -5244,13 +5271,13 @@
         <v>785394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5292,13 @@
         <v>250250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -5280,13 +5307,13 @@
         <v>340311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -5295,13 +5322,13 @@
         <v>590561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5343,13 @@
         <v>126896</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>136</v>
@@ -5331,13 +5358,13 @@
         <v>151567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5346,13 +5373,13 @@
         <v>278463</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5394,13 @@
         <v>26653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5382,13 +5409,13 @@
         <v>52417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5397,19 +5424,19 @@
         <v>79070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5418,13 +5445,13 @@
         <v>3101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5436,10 +5463,10 @@
         <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5448,13 +5475,13 @@
         <v>13078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5549,13 @@
         <v>1016949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>969</v>
@@ -5537,13 +5564,13 @@
         <v>1003608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>1930</v>
@@ -5552,13 +5579,13 @@
         <v>2020556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5600,13 @@
         <v>687220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -5588,13 +5615,13 @@
         <v>687201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -5603,13 +5630,13 @@
         <v>1374421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5651,13 @@
         <v>311606</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>241</v>
@@ -5639,13 +5666,13 @@
         <v>259515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>532</v>
@@ -5654,13 +5681,13 @@
         <v>571121</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5702,13 @@
         <v>40928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>417</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5690,13 +5717,13 @@
         <v>24193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5705,19 +5732,19 @@
         <v>65122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>15</v>
@@ -5726,13 +5753,13 @@
         <v>16180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5741,13 +5768,13 @@
         <v>10264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5756,13 +5783,13 @@
         <v>26444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5857,13 @@
         <v>304893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>328</v>
@@ -5845,13 +5872,13 @@
         <v>339724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>610</v>
@@ -5860,13 +5887,13 @@
         <v>644617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5908,13 @@
         <v>183800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -5896,13 +5923,13 @@
         <v>145006</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>304</v>
@@ -5911,13 +5938,13 @@
         <v>328806</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5959,13 @@
         <v>55319</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -5947,13 +5974,13 @@
         <v>53514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -5962,13 +5989,13 @@
         <v>108833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,10 +6013,10 @@
         <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5998,13 +6025,13 @@
         <v>9962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6013,19 +6040,19 @@
         <v>9962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -6034,13 +6061,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6052,10 +6079,10 @@
         <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6070,7 +6097,7 @@
         <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6165,13 @@
         <v>1669288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>1693</v>
@@ -6153,13 +6180,13 @@
         <v>1781279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>3285</v>
@@ -6168,13 +6195,13 @@
         <v>3450568</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6216,13 @@
         <v>1121270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H23" s="7">
         <v>1104</v>
@@ -6204,10 +6231,10 @@
         <v>1172518</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>472</v>
@@ -6219,13 +6246,13 @@
         <v>2293788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6267,13 @@
         <v>493821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H24" s="7">
         <v>428</v>
@@ -6255,13 +6282,13 @@
         <v>464596</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>899</v>
@@ -6270,13 +6297,13 @@
         <v>958417</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6318,13 @@
         <v>67581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -6306,13 +6333,13 @@
         <v>86572</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>141</v>
@@ -6321,19 +6348,19 @@
         <v>154154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -6342,13 +6369,13 @@
         <v>20275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6357,10 +6384,10 @@
         <v>20241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>270</v>
@@ -6372,13 +6399,13 @@
         <v>40515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6461,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399B903F-AF0C-4CAE-BD55-50406DE49D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8F993-5C9F-4499-9E05-437E24DD7993}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6604,13 @@
         <v>260251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>631</v>
@@ -6592,13 +6619,13 @@
         <v>371922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>959</v>
@@ -6607,13 +6634,13 @@
         <v>632172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6655,13 @@
         <v>155155</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>450</v>
@@ -6643,13 +6670,13 @@
         <v>266248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>649</v>
@@ -6658,13 +6685,13 @@
         <v>421403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6706,13 @@
         <v>82167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>211</v>
@@ -6694,13 +6721,13 @@
         <v>118153</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
@@ -6709,13 +6736,13 @@
         <v>200319</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6757,13 @@
         <v>28000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
@@ -6745,13 +6772,13 @@
         <v>54580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -6760,19 +6787,19 @@
         <v>82580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -6781,13 +6808,13 @@
         <v>13950</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>532</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6796,13 +6823,13 @@
         <v>17613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>529</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -6811,13 +6838,13 @@
         <v>31562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>533</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>534</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6912,13 @@
         <v>1195461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H10" s="7">
         <v>1586</v>
@@ -6900,13 +6927,13 @@
         <v>1193867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M10" s="7">
         <v>2617</v>
@@ -6915,13 +6942,13 @@
         <v>2389329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>19</v>
+        <v>543</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6963,13 @@
         <v>750592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H11" s="7">
         <v>1007</v>
@@ -6951,13 +6978,13 @@
         <v>719257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M11" s="7">
         <v>1740</v>
@@ -6966,13 +6993,13 @@
         <v>1469848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>546</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +7014,13 @@
         <v>149062</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>453</v>
+        <v>555</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
@@ -7002,13 +7029,13 @@
         <v>145538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
@@ -7017,13 +7044,13 @@
         <v>294600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7065,13 @@
         <v>50625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>563</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -7053,13 +7080,13 @@
         <v>170268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>566</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -7068,19 +7095,19 @@
         <v>220894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>562</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
@@ -7089,13 +7116,13 @@
         <v>12417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -7104,13 +7131,13 @@
         <v>17982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7125,7 +7152,7 @@
         <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7220,13 @@
         <v>431408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>569</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H16" s="7">
         <v>673</v>
@@ -7208,28 +7235,28 @@
         <v>490312</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M16" s="7">
         <v>1097</v>
       </c>
       <c r="N16" s="7">
-        <v>921720</v>
+        <v>921721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7271,13 @@
         <v>191826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -7259,13 +7286,13 @@
         <v>185718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
@@ -7274,13 +7301,13 @@
         <v>377544</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7322,13 @@
         <v>32124</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -7310,13 +7337,13 @@
         <v>24645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>589</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -7325,13 +7352,13 @@
         <v>56769</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>597</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7373,13 @@
         <v>14402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -7361,13 +7388,13 @@
         <v>7092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>604</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -7376,19 +7403,19 @@
         <v>21494</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>606</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -7397,13 +7424,13 @@
         <v>1850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>608</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7412,13 +7439,13 @@
         <v>5960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>601</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7427,13 +7454,13 @@
         <v>7810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>603</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>594</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7502,7 @@
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1385338</v>
+        <v>1385339</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7501,13 +7528,13 @@
         <v>1887120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
@@ -7516,13 +7543,13 @@
         <v>2056101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="M22" s="7">
         <v>4673</v>
@@ -7531,13 +7558,13 @@
         <v>3943221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7579,13 @@
         <v>1097572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>614</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>1734</v>
@@ -7567,13 +7594,13 @@
         <v>1171222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>616</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="M23" s="7">
         <v>2873</v>
@@ -7582,13 +7609,13 @@
         <v>2268795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>618</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7630,13 @@
         <v>263353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="H24" s="7">
         <v>449</v>
@@ -7618,13 +7645,13 @@
         <v>288336</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
@@ -7633,13 +7660,13 @@
         <v>551688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7681,13 @@
         <v>93028</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
@@ -7669,13 +7696,13 @@
         <v>231941</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -7684,19 +7711,19 @@
         <v>324968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>45</v>
+        <v>640</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>37</v>
@@ -7705,13 +7732,13 @@
         <v>28217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -7720,13 +7747,13 @@
         <v>41554</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -7735,13 +7762,13 @@
         <v>69772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,7 +7810,7 @@
         <v>8691</v>
       </c>
       <c r="N27" s="7">
-        <v>7158444</v>
+        <v>7158445</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -7797,7 +7824,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE83C10-5CB0-40EB-9008-327BCCEB7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1B1B31-CFC0-4CCA-954D-F897EED7E1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E44BB0E9-7A3A-4B78-9E07-67487C3FD705}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33029FA0-DA19-47C2-B9F1-D3B1D4A6B4EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
   <si>
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -1538,448 +1538,421 @@
     <t>Población según la frecuencia de tener la posibilidad de hablar con alguien de mis problemas personales y familiares en 2023 (Tasa respuesta: 99,65%)</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3915057-684B-418A-8AC2-AE0845619BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7995B13-2E50-4498-9CD7-896D53083CB4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2770,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -2820,7 +2793,7 @@
         <v>969</v>
       </c>
       <c r="D10" s="7">
-        <v>1013878</v>
+        <v>1013879</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2871,7 +2844,7 @@
         <v>471</v>
       </c>
       <c r="D11" s="7">
-        <v>470415</v>
+        <v>470416</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -3075,7 +3048,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -3436,7 +3409,7 @@
         <v>1807</v>
       </c>
       <c r="D22" s="7">
-        <v>1859255</v>
+        <v>1859254</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>147</v>
@@ -3691,7 +3664,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3754,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C04FE-6244-4BAB-844F-0879499A63A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EAD6EA-20BC-4355-9C33-AD6ADACB6779}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5117,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D4F0-A3F5-4742-A4F6-716D8541B0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE14CB62-B75E-4788-A2AB-34D5E07860E5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6139,7 +6112,7 @@
         <v>1024</v>
       </c>
       <c r="N21" s="7">
-        <v>1093210</v>
+        <v>1093211</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -6192,7 +6165,7 @@
         <v>3285</v>
       </c>
       <c r="N22" s="7">
-        <v>3450568</v>
+        <v>3450567</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>19</v>
@@ -6447,7 +6420,7 @@
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897442</v>
+        <v>6897441</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -6480,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8F993-5C9F-4499-9E05-437E24DD7993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ADE4E9-35E3-460F-A1E6-A9BBBD4C5F1F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6601,7 +6574,7 @@
         <v>328</v>
       </c>
       <c r="D4" s="7">
-        <v>260251</v>
+        <v>254068</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>499</v>
@@ -6616,7 +6589,7 @@
         <v>631</v>
       </c>
       <c r="I4" s="7">
-        <v>371922</v>
+        <v>343658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>502</v>
@@ -6631,7 +6604,7 @@
         <v>959</v>
       </c>
       <c r="N4" s="7">
-        <v>632172</v>
+        <v>597726</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>505</v>
@@ -6652,7 +6625,7 @@
         <v>199</v>
       </c>
       <c r="D5" s="7">
-        <v>155155</v>
+        <v>145878</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>508</v>
@@ -6667,7 +6640,7 @@
         <v>450</v>
       </c>
       <c r="I5" s="7">
-        <v>266248</v>
+        <v>236665</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>511</v>
@@ -6682,16 +6655,16 @@
         <v>649</v>
       </c>
       <c r="N5" s="7">
-        <v>421403</v>
+        <v>382543</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,7 +6676,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>82167</v>
+        <v>75574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>516</v>
@@ -6718,31 +6691,31 @@
         <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>118153</v>
+        <v>105241</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>200319</v>
+        <v>180815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,46 +6727,46 @@
         <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>28000</v>
+        <v>25063</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>54580</v>
+        <v>47684</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
       </c>
       <c r="N7" s="7">
-        <v>82580</v>
+        <v>72747</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,46 +6778,46 @@
         <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>13950</v>
+        <v>12355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>531</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>532</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>533</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>17613</v>
+        <v>15608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>534</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>535</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>31562</v>
+        <v>27963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6829,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="7">
-        <v>539522</v>
+        <v>512938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -6871,7 +6844,7 @@
         <v>1416</v>
       </c>
       <c r="I9" s="7">
-        <v>828515</v>
+        <v>748855</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -6886,7 +6859,7 @@
         <v>2104</v>
       </c>
       <c r="N9" s="7">
-        <v>1368037</v>
+        <v>1261793</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -6909,46 +6882,46 @@
         <v>1031</v>
       </c>
       <c r="D10" s="7">
-        <v>1195461</v>
+        <v>1391481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H10" s="7">
         <v>1586</v>
       </c>
       <c r="I10" s="7">
-        <v>1193867</v>
+        <v>1187670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M10" s="7">
         <v>2617</v>
       </c>
       <c r="N10" s="7">
-        <v>2389329</v>
+        <v>2579151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,46 +6933,46 @@
         <v>733</v>
       </c>
       <c r="D11" s="7">
-        <v>750592</v>
+        <v>700970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>545</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>1007</v>
       </c>
       <c r="I11" s="7">
-        <v>719257</v>
+        <v>643566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M11" s="7">
         <v>1740</v>
       </c>
       <c r="N11" s="7">
-        <v>1469848</v>
+        <v>1344536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>553</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,46 +6984,46 @@
         <v>153</v>
       </c>
       <c r="D12" s="7">
-        <v>149062</v>
+        <v>137288</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
       </c>
       <c r="I12" s="7">
-        <v>145538</v>
+        <v>130525</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M12" s="7">
         <v>359</v>
       </c>
       <c r="N12" s="7">
-        <v>294600</v>
+        <v>267813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>561</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,46 +7035,46 @@
         <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>50625</v>
+        <v>45584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>564</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>170268</v>
+        <v>257220</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>565</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>220894</v>
+        <v>302804</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7086,46 @@
         <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>12417</v>
+        <v>11312</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>17982</v>
+        <v>16426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>574</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>30399</v>
+        <v>27738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7137,7 @@
         <v>1988</v>
       </c>
       <c r="D15" s="7">
-        <v>2158157</v>
+        <v>2286636</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -7179,7 +7152,7 @@
         <v>2917</v>
       </c>
       <c r="I15" s="7">
-        <v>2246912</v>
+        <v>2235406</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -7194,7 +7167,7 @@
         <v>4905</v>
       </c>
       <c r="N15" s="7">
-        <v>4405070</v>
+        <v>4522042</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -7217,46 +7190,46 @@
         <v>424</v>
       </c>
       <c r="D16" s="7">
-        <v>431408</v>
+        <v>422293</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>574</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H16" s="7">
         <v>673</v>
       </c>
       <c r="I16" s="7">
-        <v>490312</v>
+        <v>457873</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M16" s="7">
         <v>1097</v>
       </c>
       <c r="N16" s="7">
-        <v>921721</v>
+        <v>880166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>582</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,46 +7241,46 @@
         <v>207</v>
       </c>
       <c r="D17" s="7">
-        <v>191826</v>
+        <v>177329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
       </c>
       <c r="I17" s="7">
-        <v>185718</v>
+        <v>168643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>588</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>484</v>
       </c>
       <c r="N17" s="7">
-        <v>377544</v>
+        <v>345973</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,46 +7292,46 @@
         <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>32124</v>
+        <v>29947</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>24645</v>
+        <v>21827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>56769</v>
+        <v>51774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>597</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7343,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>14402</v>
+        <v>14100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>601</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>7092</v>
+        <v>6510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>605</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>21494</v>
+        <v>20610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>607</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,46 +7394,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1850</v>
+        <v>1630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>608</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>609</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>5960</v>
+        <v>5450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>7810</v>
+        <v>7080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,7 +7445,7 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>671611</v>
+        <v>645299</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -7487,7 +7460,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713727</v>
+        <v>660304</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7502,7 +7475,7 @@
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1385339</v>
+        <v>1305603</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7525,46 +7498,46 @@
         <v>1783</v>
       </c>
       <c r="D22" s="7">
-        <v>1887120</v>
+        <v>2067841</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
       </c>
       <c r="I22" s="7">
-        <v>2056101</v>
+        <v>1989200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="M22" s="7">
         <v>4673</v>
       </c>
       <c r="N22" s="7">
-        <v>3943221</v>
+        <v>4057042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,46 +7549,46 @@
         <v>1139</v>
       </c>
       <c r="D23" s="7">
-        <v>1097572</v>
+        <v>1024177</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>611</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>368</v>
+        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>1734</v>
       </c>
       <c r="I23" s="7">
-        <v>1171222</v>
+        <v>1048874</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M23" s="7">
         <v>2873</v>
       </c>
       <c r="N23" s="7">
-        <v>2268795</v>
+        <v>2073051</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>616</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,46 +7600,46 @@
         <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>263353</v>
+        <v>242810</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7">
         <v>449</v>
       </c>
       <c r="I24" s="7">
-        <v>288336</v>
+        <v>257592</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
       </c>
       <c r="N24" s="7">
-        <v>551688</v>
+        <v>500402</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,46 +7651,46 @@
         <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>93028</v>
+        <v>84747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
       </c>
       <c r="I25" s="7">
-        <v>231941</v>
+        <v>311414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
       </c>
       <c r="N25" s="7">
-        <v>324968</v>
+        <v>396161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,46 +7702,46 @@
         <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>28217</v>
+        <v>25297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>496</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>41554</v>
+        <v>37484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>598</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
       </c>
       <c r="N26" s="7">
-        <v>69772</v>
+        <v>62781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7753,7 @@
         <v>3355</v>
       </c>
       <c r="D27" s="7">
-        <v>3369290</v>
+        <v>3444873</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7795,7 +7768,7 @@
         <v>5336</v>
       </c>
       <c r="I27" s="7">
-        <v>3789154</v>
+        <v>3644564</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7810,7 +7783,7 @@
         <v>8691</v>
       </c>
       <c r="N27" s="7">
-        <v>7158445</v>
+        <v>7089438</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
